--- a/medicine/Psychotrope/Speyside_(distillerie)/Speyside_(distillerie).xlsx
+++ b/medicine/Psychotrope/Speyside_(distillerie)/Speyside_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Speyside est une distillerie de whisky fondée en 1990 à Drumguish en  Écosse par George Christie. La construction de la distillerie a commencé en 1990 soit plus de 25 ans après la fondation de la société qui devait la gérer, la Speyside Distillers Company Ltd.
@@ -513,18 +525,54 @@
           <t>La production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Speyside possède une cuve de brassage et quatre cuves de fermentations en acier inoxydable. La distillation se fait au moyen de deux alambics, un wash stills de 10 000 litres et un spirit stills de 6 000 litres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Speyside possède une cuve de brassage et quatre cuves de fermentations en acier inoxydable. La distillation se fait au moyen de deux alambics, un wash stills de 10 000 litres et un spirit stills de 6 000 litres.
 Depuis 2006, la distillerie produit un jour par semaine un alcool tourbé.
-Versions officielles
-The Speyside 8 ans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Speyside_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Speyside_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>La production</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Versions officielles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Speyside 8 ans
 The Speyside 10 ans
 The Speyside 12 ans
 Drumguish 3 ans
 Glen Tromie (vatted malt)
-Différents blends
-Embouteillages indépendants</t>
+Différents blends</t>
         </is>
       </c>
     </row>
